--- a/Documentatie/Test_matrix.xlsx
+++ b/Documentatie/Test_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\Fontys\Semester 2\Individueel traject\Ontwikkelopdracht\RaadHetWoordAsp\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7305B-A98F-4CE3-9329-3494C0C7455C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD277E5-8C5E-4471-A49B-D03425768736}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{D3399ED9-2210-4099-B7CA-49A9DF119E16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Testmatrix</t>
   </si>
@@ -111,19 +111,13 @@
     <t>S02</t>
   </si>
   <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>W01</t>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
   </si>
 </sst>
 </file>
@@ -180,10 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -498,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B360A05-EFDA-4FC1-BA76-12705F2359DF}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,11 +510,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -552,21 +552,11 @@
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -582,11 +572,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -602,11 +592,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -622,11 +612,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -642,11 +632,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -662,11 +652,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -681,12 +671,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -701,19 +691,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -722,18 +712,18 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -742,18 +732,18 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -762,11 +752,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -774,7 +764,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -782,11 +772,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -795,18 +785,18 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -818,15 +808,15 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -842,11 +832,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -857,16 +847,16 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -877,16 +867,179 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
